--- a/testdata/FA-1 (ปี 2565)(test).xlsx
+++ b/testdata/FA-1 (ปี 2565)(test).xlsx
@@ -1082,7 +1082,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
         <v>241945</v>
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>23</v>
@@ -1158,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L4" s="5">
         <v>241945</v>
@@ -1196,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>29</v>
@@ -1234,7 +1234,7 @@
         <v>241979</v>
       </c>
       <c r="K6" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
         <v>242071</v>
@@ -1272,7 +1272,7 @@
         <v>241979</v>
       </c>
       <c r="K7" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>36</v>
@@ -1310,7 +1310,7 @@
         <v>242044</v>
       </c>
       <c r="K8" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L8" s="5">
         <v>241859</v>
@@ -1348,7 +1348,7 @@
         <v>242044</v>
       </c>
       <c r="K9" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L9" s="5">
         <v>241801</v>
@@ -1386,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="K10" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L10" s="5">
         <v>241891</v>
@@ -1424,7 +1424,7 @@
         <v>241893</v>
       </c>
       <c r="K11" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L11" s="5">
         <v>241893</v>
@@ -1462,7 +1462,7 @@
         <v>51</v>
       </c>
       <c r="K12" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>52</v>
@@ -1500,7 +1500,7 @@
         <v>54</v>
       </c>
       <c r="K13" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>55</v>
@@ -1538,7 +1538,7 @@
         <v>59</v>
       </c>
       <c r="K14" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>60</v>
@@ -1576,7 +1576,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L15" s="5">
         <v>241985</v>
@@ -1614,7 +1614,7 @@
         <v>67</v>
       </c>
       <c r="K16" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>68</v>
@@ -1652,7 +1652,7 @@
         <v>67</v>
       </c>
       <c r="K17" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L17" s="5">
         <v>242342</v>
@@ -1690,7 +1690,7 @@
         <v>74</v>
       </c>
       <c r="K18" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L18" s="5">
         <v>242162</v>
@@ -1728,7 +1728,7 @@
         <v>74</v>
       </c>
       <c r="K19" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>79</v>
@@ -1766,7 +1766,7 @@
         <v>82</v>
       </c>
       <c r="K20" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>83</v>
@@ -1804,7 +1804,7 @@
         <v>86</v>
       </c>
       <c r="K21" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L21" s="5">
         <v>242282</v>
@@ -1842,7 +1842,7 @@
         <v>242376</v>
       </c>
       <c r="K22" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>89</v>
@@ -1880,7 +1880,7 @@
         <v>242379</v>
       </c>
       <c r="K23" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>93</v>
@@ -1918,7 +1918,7 @@
         <v>242379</v>
       </c>
       <c r="K24" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L24" s="5">
         <v>242283</v>
@@ -1956,7 +1956,7 @@
         <v>242376</v>
       </c>
       <c r="K25" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L25" s="5">
         <v>242315</v>
@@ -1994,7 +1994,7 @@
         <v>242379</v>
       </c>
       <c r="K26" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L26" s="4"/>
     </row>
@@ -2030,7 +2030,7 @@
         <v>242379</v>
       </c>
       <c r="K27" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L27" s="5">
         <v>242438</v>
@@ -2068,7 +2068,7 @@
         <v>242379</v>
       </c>
       <c r="K28" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L28" s="5">
         <v>242256</v>
@@ -2106,7 +2106,7 @@
         <v>242379</v>
       </c>
       <c r="K29" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L29" s="5">
         <v>242438</v>
@@ -2144,7 +2144,7 @@
         <v>242379</v>
       </c>
       <c r="K30" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L30" s="4"/>
     </row>
@@ -2180,7 +2180,7 @@
         <v>117</v>
       </c>
       <c r="K31" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L31" s="5">
         <v>242440</v>
@@ -2218,7 +2218,7 @@
         <v>242379</v>
       </c>
       <c r="K32" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>122</v>
@@ -2256,7 +2256,7 @@
         <v>242705</v>
       </c>
       <c r="K33" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L33" s="5">
         <v>242412</v>
@@ -2294,7 +2294,7 @@
         <v>242705</v>
       </c>
       <c r="K34" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L34" s="5">
         <v>242828</v>
@@ -2332,7 +2332,7 @@
         <v>132</v>
       </c>
       <c r="K35" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>131</v>
@@ -2370,7 +2370,7 @@
         <v>132</v>
       </c>
       <c r="K36" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>135</v>
@@ -2408,7 +2408,7 @@
         <v>139</v>
       </c>
       <c r="K37" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>140</v>
@@ -2446,7 +2446,7 @@
         <v>143</v>
       </c>
       <c r="K38" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L38" s="5">
         <v>242617</v>
@@ -2484,7 +2484,7 @@
         <v>242556</v>
       </c>
       <c r="K39" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>75</v>
       </c>
       <c r="L39" s="5">
         <v>242585</v>
@@ -2522,7 +2522,7 @@
         <v>150</v>
       </c>
       <c r="K40" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>149</v>
@@ -2560,7 +2560,7 @@
         <v>153</v>
       </c>
       <c r="K41" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>153</v>
@@ -2598,7 +2598,7 @@
         <v>157</v>
       </c>
       <c r="K42" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>158</v>
@@ -2636,7 +2636,7 @@
         <v>153</v>
       </c>
       <c r="K43" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>153</v>
@@ -2674,7 +2674,7 @@
         <v>242681</v>
       </c>
       <c r="K44" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L44" s="5">
         <v>242834</v>
@@ -2712,7 +2712,7 @@
         <v>242531</v>
       </c>
       <c r="K45" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>100</v>
       </c>
       <c r="L45" s="5">
         <v>242714</v>
@@ -2750,7 +2750,7 @@
         <v>170</v>
       </c>
       <c r="K46" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>171</v>
@@ -2788,7 +2788,7 @@
         <v>175</v>
       </c>
       <c r="K47" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>176</v>
@@ -2826,7 +2826,7 @@
         <v>180</v>
       </c>
       <c r="K48" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>181</v>
@@ -2864,7 +2864,7 @@
         <v>242892</v>
       </c>
       <c r="K49" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>25</v>
       </c>
       <c r="L49" s="6">
         <v>23821</v>
@@ -2902,7 +2902,7 @@
         <v>242892</v>
       </c>
       <c r="K50" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>0</v>
       </c>
       <c r="L50" s="6">
         <v>23826</v>
@@ -2940,7 +2940,7 @@
         <v>191</v>
       </c>
       <c r="K51" s="2">
-        <f>CHOOSE(RANDBETWEEN(1,5),0,25,50,75,100)</f>
+        <v>50</v>
       </c>
       <c r="L51" s="6">
         <v>23830</v>

--- a/testdata/FA-1 (ปี 2565)(test).xlsx
+++ b/testdata/FA-1 (ปี 2565)(test).xlsx
@@ -1008,11 +1008,11 @@
     <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="9" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="10" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1043,14 +1043,14 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>242342</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>242282</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="34.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>

--- a/testdata/FA-1 (ปี 2565)(test).xlsx
+++ b/testdata/FA-1 (ปี 2565)(test).xlsx
@@ -1924,7 +1924,7 @@
         <v>242283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>242315</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="32.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>242438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="32.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>242256</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>242438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>242440</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>242412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>242828</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>242617</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>242585</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
